--- a/src/assets/student_register.xlsx
+++ b/src/assets/student_register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sungjinpark/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28A19802-67A1-F94F-B861-6938420D08A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F23C6B-0E01-CA4A-8A52-791F5AA4CE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="10820" windowWidth="21600" windowHeight="18880" xr2:uid="{8CB8718E-13EB-3643-B6C4-930D62CF2B8D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36700" windowHeight="21100" xr2:uid="{8CB8718E-13EB-3643-B6C4-930D62CF2B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,15 +73,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
+    <t>건설공학전공</t>
+  </si>
+  <si>
+    <t>도시환경공학전공</t>
+  </si>
+  <si>
+    <t>기계공학전공</t>
+  </si>
+  <si>
+    <t>전자제어공학전공</t>
+  </si>
+  <si>
+    <t>생명과학전공</t>
+  </si>
+  <si>
+    <t>글로벌융합전공</t>
+  </si>
+  <si>
+    <t>수학통계전공</t>
+  </si>
+  <si>
+    <t>학생설계융합전공</t>
+  </si>
+  <si>
+    <t>시각디자인전공</t>
+  </si>
+  <si>
+    <t>제품디자인전공</t>
+  </si>
+  <si>
+    <t>컴퓨터공학전공</t>
+  </si>
+  <si>
+    <t>컴퓨터공학심화전공</t>
+  </si>
+  <si>
+    <t>전자공학전공</t>
+  </si>
+  <si>
+    <t>전자공학심화전공</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>ICT 융합전공</t>
+  </si>
+  <si>
+    <t>AI Convergence &amp; Entrepreneurship 전공</t>
+  </si>
+  <si>
+    <t>Global Entrepreneurship 전공</t>
+  </si>
+  <si>
+    <t>AI 융합 전공</t>
+  </si>
+  <si>
+    <t>데이터 사이언스 전공</t>
+  </si>
+  <si>
+    <t>경영학전공</t>
+  </si>
+  <si>
+    <t>경제학전공</t>
+  </si>
+  <si>
+    <t>Global Management</t>
+  </si>
+  <si>
+    <t>국제지역학전공</t>
+  </si>
+  <si>
+    <t>영어전공</t>
+  </si>
+  <si>
+    <t>한국법전공</t>
+  </si>
+  <si>
+    <t>US &amp; International Law</t>
+  </si>
+  <si>
+    <t>상담심리학전공</t>
+  </si>
+  <si>
+    <t>사회복지학전공</t>
+  </si>
+  <si>
+    <t>공연영상학전공</t>
+  </si>
+  <si>
+    <t>언론정보학전공</t>
+  </si>
+  <si>
+    <t>글로벌한국학전공</t>
+  </si>
+  <si>
+    <t>전공 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전산전자공학부</t>
+  </si>
+  <si>
+    <t>국제어문학부</t>
+  </si>
+  <si>
+    <t>경영경제학부</t>
+  </si>
+  <si>
+    <t>법학부</t>
+  </si>
+  <si>
+    <t>커뮤니케이션학부</t>
+  </si>
+  <si>
+    <t>상담심리사회복지학부</t>
+  </si>
+  <si>
+    <t>공간환경시스템공학부</t>
+  </si>
+  <si>
+    <t>콘텐츠융합디자인학부</t>
+  </si>
+  <si>
+    <t>기계제어공학부</t>
+  </si>
+  <si>
+    <t>ICT 창업학부</t>
+  </si>
+  <si>
+    <t>생명과학부</t>
+  </si>
+  <si>
+    <t>글로벌리더쉽학부</t>
+  </si>
+  <si>
+    <t>학부 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FABC25-6AA0-CF40-BE23-44E2FD0DFEE5}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -460,10 +596,14 @@
     <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1"/>
     <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,17 +622,21 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -512,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -531,8 +675,20 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -551,8 +707,20 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -570,6 +738,316 @@
       </c>
       <c r="F5" s="1">
         <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="H11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="H13" s="1">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="1">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="1">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="H15" s="1"/>
+      <c r="K15" s="1">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" s="1"/>
+      <c r="K16" s="1">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12">
+      <c r="H17" s="1"/>
+      <c r="K17" s="1">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12">
+      <c r="H18" s="1"/>
+      <c r="K18" s="1">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12">
+      <c r="K19" s="1">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12">
+      <c r="K20" s="1">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12">
+      <c r="K21" s="1">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12">
+      <c r="K22" s="1">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12">
+      <c r="K23" s="1">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12">
+      <c r="K24" s="1">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12">
+      <c r="K25" s="1">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="8:12">
+      <c r="K26" s="1">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12">
+      <c r="K27" s="1">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="8:12">
+      <c r="K28" s="1">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="8:12">
+      <c r="K29" s="1">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="8:12">
+      <c r="K30" s="1">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="8:12">
+      <c r="K31" s="1">
+        <v>29</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="8:12">
+      <c r="K32" s="1">
+        <v>30</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12">
+      <c r="K33" s="1">
+        <v>31</v>
+      </c>
+      <c r="L33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12">
+      <c r="K34" s="1">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="11:12">
+      <c r="K35" s="1">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
